--- a/Hardware/V2/Main PCB V1/BOM/AquaDrone_Main_PCB_V1_BOM.xlsx
+++ b/Hardware/V2/Main PCB V1/BOM/AquaDrone_Main_PCB_V1_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dhrumil\Desktop\UWAUV\electricalgit\trunk\Hardware\V2\Main PCB V1\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB5B8E6-AA29-46E0-A2C3-C3302F04322F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6697819E-F600-4167-94A1-192DFDBACF72}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{774E9DAB-8462-432F-87A6-2C185841FC7B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="159">
   <si>
     <t>Quantity</t>
   </si>
@@ -490,6 +490,24 @@
   </si>
   <si>
     <t>AquaDrone Main PCB V1 BOM</t>
+  </si>
+  <si>
+    <t>Ordered  JMK107ABJ106MA-T</t>
+  </si>
+  <si>
+    <t>Already Have</t>
+  </si>
+  <si>
+    <t>Ordered 0705530036</t>
+  </si>
+  <si>
+    <t>Bought from amazon  https://www.amazon.ca/10pairs-XT90-Male-Female-Connectors/dp/B07Q3TS8PB/ref=sr_1_5?crid=1V957T0H293NP&amp;keywords=xt90%2Bconnector&amp;qid=1578978177&amp;sprefix=xt90%2B%2Caps%2C308&amp;sr=8-5&amp;th=1</t>
+  </si>
+  <si>
+    <t>Bought from amazon https://www.amazon.ca/gp/product/B06ZZHX4ZF/ref=ox_sc_act_title_2?smid=A1JGQIWP459RKC&amp;psc=1</t>
+  </si>
+  <si>
+    <t>Ordered SN74LVC1G97DCKR‎ (wrong footprint)</t>
   </si>
 </sst>
 </file>
@@ -541,7 +559,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -564,11 +582,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -576,10 +614,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -894,11 +934,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662636A8-B0D1-4548-866F-C539E895F9CD}">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P22" sqref="P22"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -913,13 +953,13 @@
     <col min="8" max="8" width="8.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9" ht="23.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="5"/>
-    </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.4">
+      <c r="B1" s="6"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -945,7 +985,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -971,7 +1011,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>10</v>
       </c>
@@ -997,7 +1037,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -1022,8 +1062,11 @@
       <c r="H7" s="4">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.4">
+      <c r="I7" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>3</v>
       </c>
@@ -1048,8 +1091,11 @@
       <c r="H8" s="4">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.4">
+      <c r="I8" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -1074,8 +1120,11 @@
       <c r="H9" s="4">
         <v>5.66</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.4">
+      <c r="I9" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>2</v>
       </c>
@@ -1101,7 +1150,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>5</v>
       </c>
@@ -1124,10 +1173,13 @@
         <v>13</v>
       </c>
       <c r="H11" s="4">
-        <v>1.1200000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.4">
+        <v>1.58</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -1152,8 +1204,11 @@
       <c r="H12" s="4">
         <v>2.1800000000000002</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.4">
+      <c r="I12" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -1178,8 +1233,11 @@
       <c r="H13" s="4">
         <v>60</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.4">
+      <c r="I13" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -1204,8 +1262,11 @@
       <c r="H14" s="4">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.4">
+      <c r="I14" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>1</v>
       </c>
@@ -1231,7 +1292,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>1</v>
       </c>
@@ -1257,7 +1318,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>1</v>
       </c>
@@ -1282,8 +1343,11 @@
       <c r="H17" s="4">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.4">
+      <c r="I17" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>5</v>
       </c>
@@ -1309,7 +1373,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>3</v>
       </c>
@@ -1334,8 +1398,11 @@
       <c r="H19" s="4">
         <v>1.47</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.4">
+      <c r="I19" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>7</v>
       </c>
@@ -1361,7 +1428,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>27</v>
       </c>
@@ -1387,7 +1454,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>8</v>
       </c>
@@ -1413,7 +1480,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>2</v>
       </c>
@@ -1439,7 +1506,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>7</v>
       </c>
@@ -1465,7 +1532,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>8</v>
       </c>
@@ -1491,7 +1558,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>2</v>
       </c>
@@ -1517,7 +1584,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>2</v>
       </c>
@@ -1543,7 +1610,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>1</v>
       </c>
@@ -1569,7 +1636,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>3</v>
       </c>
@@ -1595,7 +1662,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>2</v>
       </c>
@@ -1621,7 +1688,7 @@
         <v>23.27</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>1</v>
       </c>
@@ -1646,8 +1713,11 @@
       <c r="H31" s="4">
         <v>50</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.4">
+      <c r="I31" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>1</v>
       </c>
@@ -1672,8 +1742,11 @@
       <c r="H32" s="4">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.4">
+      <c r="I32" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>1</v>
       </c>
@@ -1699,7 +1772,7 @@
         <v>14.18</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>1</v>
       </c>
@@ -1724,8 +1797,11 @@
       <c r="H34" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.4">
+      <c r="I34" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
         <v>1</v>
       </c>
@@ -1751,7 +1827,7 @@
         <v>3.07</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" ht="15" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
         <v>3</v>
       </c>
@@ -1777,7 +1853,7 @@
         <v>5.98</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" ht="15" x14ac:dyDescent="0.4">
       <c r="A37" s="2">
         <v>1</v>
       </c>
@@ -1803,7 +1879,7 @@
         <v>3.46</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.4">
       <c r="A38" s="2">
         <v>6</v>
       </c>
@@ -1828,14 +1904,17 @@
       <c r="H38" s="4">
         <v>0.57999999999999996</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I38" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H41">
         <f>SUMPRODUCT(H5:H38,A5:A38)-H31-H32-H34-H13+12+10</f>
-        <v>172.23999999999995</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+        <v>174.53999999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>150</v>
       </c>
@@ -1843,13 +1922,13 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="G43" s="6" t="s">
+    <row r="43" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="G43" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="H43" s="6">
+      <c r="H43" s="5">
         <f>H41+H42</f>
-        <v>232.23999999999995</v>
+        <v>234.53999999999996</v>
       </c>
     </row>
   </sheetData>
